--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04474792382107892</v>
+        <v>0.04466068521265196</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00646247232419145</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1663305890751532</v>
+        <v>0.1741320200077714</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374956</v>
+        <v>0.249489236137498</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.853324508463283</v>
+        <v>4.858033220791606</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2012455809495834</v>
+        <v>0.1793228295746966</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3792977562887492</v>
+        <v>0.3876273287116658</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.40621503981512</v>
+        <v>10.49618237245634</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2262063343461108</v>
+        <v>0.2335374104253093</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8562030846578298</v>
+        <v>0.854325548236784</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.83288066699808</v>
+        <v>19.90803893907074</v>
       </c>
     </row>
   </sheetData>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1741320200077714</v>
+        <v>0.1741320200077713</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.249489236137498</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.858033220791606</v>
+        <v>4.858033220791604</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1793228295746966</v>
+        <v>0.1793228295746899</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3876273287116658</v>
+        <v>0.3876273287116674</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.49618237245634</v>
+        <v>10.49618237245656</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2335374104253093</v>
+        <v>0.2335374104253249</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.854325548236784</v>
+        <v>0.8543255482367794</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.90803893907074</v>
+        <v>19.9080389390703</v>
       </c>
     </row>
   </sheetData>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,10 +481,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
@@ -492,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04466068521265196</v>
+        <v>0.04373769999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,13 +519,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1741320200077713</v>
+        <v>0.1745356424446571</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361374983</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +534,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.858033220791604</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.04474700231313858</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.764367072811938</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +608,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
@@ -595,7 +634,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1793228295746899</v>
+        <v>0.1721106744316322</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3876273287116674</v>
+        <v>0.3951053466304963</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +661,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.49618237245656</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1457648310201947</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.413732987486956</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,10 +735,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
@@ -698,7 +761,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2335374104253249</v>
+        <v>0.2391727020976004</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8543255482367794</v>
+        <v>0.8457551128358666</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +788,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.9080389390703</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3126558858520398</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>19.11946857669047</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,10 +862,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
@@ -828,6 +915,15 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,10 +989,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
@@ -931,6 +1042,15 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,10 +1116,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
@@ -1034,6 +1169,15 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,21 +496,16 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>ttes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04373769999999999</v>
+        <v>0.04373769999999998</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.002910246426677587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -519,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1745356424446571</v>
+        <v>0.1709136787937457</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374983</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -537,13 +532,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04474700231313858</v>
+        <v>0.04534009999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.764367072811938</v>
+        <v>4.752733254222781</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,18 +615,13 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>ttes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1721106744316322</v>
+        <v>0.1876684410050792</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -646,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3951053466304963</v>
+        <v>0.388306998642078</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -664,13 +651,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1457648310201947</v>
+        <v>0.1455767333333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9.413732987486956</v>
+        <v>9.370368779056442</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,18 +734,13 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>ttes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2391727020976004</v>
+        <v>0.2353847365951183</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -773,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8457551128358666</v>
+        <v>0.84579944</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -791,13 +770,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3126558858520398</v>
+        <v>0.3086641666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19.11946857669047</v>
+        <v>18.71931645857568</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,11 +853,6 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>ttes</t>
         </is>
       </c>
@@ -921,9 +892,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,7 +906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,11 +972,6 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>ttes</t>
         </is>
       </c>
@@ -1048,9 +1011,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,11 +1091,6 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>ttes</t>
         </is>
       </c>
@@ -1175,9 +1130,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,22 +481,37 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -526,16 +541,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4758664595467613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2314872</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.04534009999999999</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>4.752733254222781</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.658442774462342</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,22 +624,37 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -645,16 +684,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.3504321313491998</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9622539493088506</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.1455767333333333</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>9.370368779056442</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.590373014785222</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,22 +767,37 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -764,16 +827,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.578086692437371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8464824840244838</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.3086641666666667</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>18.71931645857568</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18.3284399106129</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,22 +910,37 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -892,6 +979,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -906,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,22 +1053,37 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -1011,6 +1122,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1025,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,22 +1196,37 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -1130,6 +1265,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04373769999999998</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002910246426677587</v>
+        <v>0.07994270341784696</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1709136787937457</v>
+        <v>0.1972349740179767</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4758664595467613</v>
+        <v>0.8532784</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2314872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04534009999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.752733254222781</v>
+        <v>3.461393823564564</v>
       </c>
       <c r="O2" t="n">
-        <v>3.658442774462342</v>
+        <v>2.471387623027189</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1876684410050792</v>
+        <v>0.1909954744387832</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.140464496582153</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.388306998642078</v>
+        <v>0.5790800236167917</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3504321313491998</v>
+        <v>1.674052599999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9622539493088506</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1455767333333333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.370368779056442</v>
+        <v>5.560887517143134</v>
       </c>
       <c r="O2" t="n">
-        <v>4.590373014785222</v>
+        <v>6.19649601055773</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2353847365951183</v>
+        <v>0.2539772255612167</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.2296106490751534</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.84579944</v>
+        <v>0.9196628171525797</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.578086692437371</v>
+        <v>2.620466577457396</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8464824840244838</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3086641666666667</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.71931645857568</v>
+        <v>23.86138172820945</v>
       </c>
       <c r="O2" t="n">
-        <v>18.3284399106129</v>
+        <v>15.38923335888671</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.863440681153939</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.1161783067483362</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.634994899896032</v>
       </c>
     </row>
   </sheetData>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07994270341784696</v>
+        <v>0.01372268907515325</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1972349740179767</v>
+        <v>0.3702421638625012</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8532784</v>
+        <v>0.3991318617282426</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.5678023999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.07761700000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>3.461393823564564</v>
+        <v>12.63255121911827</v>
       </c>
       <c r="O2" t="n">
-        <v>2.471387623027189</v>
+        <v>3.433981830061676</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1909954744387832</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.140464496582153</v>
+        <v>0.04345357478734801</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5790800236167917</v>
+        <v>0.2300116167842811</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.674052599999999</v>
+        <v>0.5432101616050908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.07828871198158027</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.05284941666666672</v>
       </c>
       <c r="N2" t="n">
-        <v>5.560887517143134</v>
+        <v>4.949474125454461</v>
       </c>
       <c r="O2" t="n">
-        <v>6.19649601055773</v>
+        <v>5.47229528149245</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2539772255612167</v>
+        <v>0.1185570572728702</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2296106490751534</v>
+        <v>0.03250564971082115</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9196628171525797</v>
+        <v>0.1631784079372048</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.620466577457396</v>
+        <v>0.4219666447996687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.03633330321875103</v>
       </c>
       <c r="N2" t="n">
-        <v>23.86138172820945</v>
+        <v>7.447205196579223</v>
       </c>
       <c r="O2" t="n">
-        <v>15.38923335888671</v>
+        <v>0.8549932260662185</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.5170046108778017</v>
       </c>
       <c r="O2" t="n">
-        <v>1.863440681153939</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1161783067483362</v>
+        <v>0.1328976602715719</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.090165151747748</v>
       </c>
       <c r="O2" t="n">
-        <v>1.634994899896032</v>
+        <v>4.911002349505852</v>
       </c>
     </row>
   </sheetData>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.1790197411747176</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07994270341784696</v>
+        <v>0.9674727748952647</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1972349740179767</v>
+        <v>0.3622250546230929</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.0688056691606346</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8532784</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.478507741144287</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.461393823564564</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.471387623027189</v>
+        <v>3.364628064996581</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1909954744387832</v>
+        <v>0.3557213159970665</v>
       </c>
       <c r="B2" t="n">
-        <v>0.140464496582153</v>
+        <v>2.251250514888905</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5790800236167917</v>
+        <v>0.2028464260512431</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1393700898393654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.674052599999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.83420514615431</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.560887517143134</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6.19649601055773</v>
+        <v>6.646311143090921</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2539772255612167</v>
+        <v>0.8042347609455174</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2296106490751534</v>
+        <v>1.662455328708055</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9196628171525797</v>
+        <v>0.1448219722840095</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1261817221222198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.620466577457396</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>29.3948711886743</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>23.86138172820945</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15.38923335888671</v>
+        <v>7.285821150245527</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -983,12 +925,6 @@
       </c>
       <c r="M2" t="n">
         <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.863440681153939</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1089,7 +1015,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1161783067483362</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1126,12 +1052,6 @@
       </c>
       <c r="M2" t="n">
         <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.634994899896032</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1268,12 +1178,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -507,28 +507,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1790197411747176</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9674727748952647</v>
+        <v>0.3237813838560402</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.7500791291218792</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3622250546230929</v>
+        <v>0.2223787231250065</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0688056691606346</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.02871247489661414</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.478507741144287</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.364628064996581</v>
+        <v>18.29443680631524</v>
       </c>
     </row>
   </sheetData>
@@ -634,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3557213159970665</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.251250514888905</v>
+        <v>2.071611967907206</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2028464260512431</v>
+        <v>0.2934223746530911</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1393700898393654</v>
+        <v>0.08282673486493455</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.83420514615431</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.646311143090921</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -761,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8042347609455174</v>
+        <v>0.3909163425247861</v>
       </c>
       <c r="B2" t="n">
-        <v>1.662455328708055</v>
+        <v>1.907587335935086</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1448219722840095</v>
+        <v>0.04927038289623842</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1261817221222198</v>
+        <v>0.2015592558371645</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>29.3948711886743</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.285821150245527</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -507,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.1561013761891621</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3237813838560402</v>
+        <v>0.2953695401416222</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>0.7500791291218792</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2223787231250065</v>
+        <v>0.3545135234427506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.06880566916063438</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02871247489661414</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.29443680631524</v>
+        <v>3.364628064996591</v>
       </c>
     </row>
   </sheetData>
@@ -634,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.1259226311331493</v>
       </c>
       <c r="B2" t="n">
-        <v>2.071611967907206</v>
+        <v>2.255812721697144</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2934223746530911</v>
+        <v>0.2105579572315854</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08282673486493455</v>
+        <v>0.1393700898393656</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.646311143090911</v>
       </c>
     </row>
   </sheetData>
@@ -761,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3909163425247861</v>
+        <v>0.8144301184494626</v>
       </c>
       <c r="B2" t="n">
-        <v>1.907587335935086</v>
+        <v>1.665005612313961</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04927038289623842</v>
+        <v>0.1343463510552148</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2015592558371645</v>
+        <v>0.1261817221222224</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.285821150245416</v>
       </c>
     </row>
   </sheetData>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -507,25 +507,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1561013761891621</v>
+        <v>0.157165130754764</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2953695401416222</v>
+        <v>0.6890858313261462</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7500791291218792</v>
+        <v>0.31259354256</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3545135234427506</v>
+        <v>0.3547553616123381</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06880566916063438</v>
+        <v>0.06880566916063378</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.364628064996591</v>
+        <v>3.364628064996617</v>
       </c>
     </row>
   </sheetData>
@@ -634,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1259226311331493</v>
+        <v>0.1311939606768238</v>
       </c>
       <c r="B2" t="n">
-        <v>2.255812721697144</v>
+        <v>2.255833458418311</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2105579572315854</v>
+        <v>0.2103161190619979</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1393700898393656</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.646311143090911</v>
+        <v>6.646311143090886</v>
       </c>
     </row>
   </sheetData>
@@ -761,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8144301184494626</v>
+        <v>0.808095034340186</v>
       </c>
       <c r="B2" t="n">
-        <v>1.665005612313961</v>
+        <v>1.66500561231396</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1261817221222224</v>
+        <v>0.1261817221222225</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.285821150245416</v>
+        <v>7.285821150245408</v>
       </c>
     </row>
   </sheetData>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01372268907515325</v>
+        <v>0.01288510000000001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3702421638625012</v>
+        <v>0.3709630638625014</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3991318617282426</v>
+        <v>0.3992358833333333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5678023999999999</v>
+        <v>0.5681807</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07761700000000001</v>
+        <v>0.07758191666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.63255121911827</v>
+        <v>12.7225376573605</v>
       </c>
       <c r="O2" t="n">
-        <v>3.433981830061676</v>
+        <v>3.412726950301433</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04345357478734801</v>
+        <v>0.06598974870958903</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2300116167842811</v>
+        <v>0.3655698135733221</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5432101616050908</v>
+        <v>0.7285723112601229</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07828871198158027</v>
+        <v>0.2273058887398774</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05284941666666672</v>
+        <v>0.08785800000000005</v>
       </c>
       <c r="N2" t="n">
-        <v>4.949474125454461</v>
+        <v>8.998982253460911</v>
       </c>
       <c r="O2" t="n">
-        <v>5.47229528149245</v>
+        <v>6.734518884057666</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1185570572728702</v>
+        <v>0.1231904873122577</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03250564971082115</v>
+        <v>0.03401982872623448</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1631784079372048</v>
+        <v>0.1592808142308435</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4219666447996687</v>
+        <v>0.4124207654190268</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03633330321875103</v>
+        <v>0.02832824999999994</v>
       </c>
       <c r="N2" t="n">
-        <v>7.447205196579223</v>
+        <v>7.845576327967116</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8549932260662185</v>
+        <v>0.739739264829506</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5170046108778017</v>
+        <v>0.4591703578189765</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1328976602715719</v>
+        <v>0.1545504724036852</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.090165151747748</v>
+        <v>2.491682046607792</v>
       </c>
       <c r="O2" t="n">
-        <v>4.911002349505852</v>
+        <v>5.52224645448535</v>
       </c>
     </row>
   </sheetData>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,28 +517,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.157165130754764</v>
+        <v>0.1571651307547639</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6890858313261462</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.689020783930942</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.31259354256</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.3547553616123381</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3548204090075423</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06880566916063378</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063438</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -543,7 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.364628064996617</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.723565742590276</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.364628064996592</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,28 +660,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1311939606768238</v>
+        <v>0.1304062940244202</v>
       </c>
       <c r="B2" t="n">
-        <v>2.255833458418311</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.256686172465919</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2103161190619979</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2102510716667937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1393700898393662</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1393700898393656</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -670,7 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.646311143090886</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>29.27060746310064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.646311143090911</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.808095034340186</v>
+        <v>0.8087454302166679</v>
       </c>
       <c r="B2" t="n">
-        <v>1.66500561231396</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.665026490901018</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1343463510552148</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.1362056173579906</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1261817221222225</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1261817221222325</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -797,7 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.285821150245408</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>23.15384814660096</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.285821150244921</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -924,6 +982,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1051,6 +1125,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1178,6 +1268,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1571651307547639</v>
+        <v>0.1775635958702366</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.689020783930942</v>
+        <v>0.7036754576025982</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3548204090075423</v>
+        <v>0.3197672702204145</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06880566916063438</v>
+        <v>0.06880566916063315</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.723565742590276</v>
+        <v>6.860475500947478</v>
       </c>
       <c r="O2" t="n">
-        <v>3.364628064996592</v>
+        <v>3.36462806499665</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1304062940244202</v>
+        <v>0.1430729555907566</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.256686172465919</v>
+        <v>2.291046710352323</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2102510716667937</v>
+        <v>0.2453042104539215</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1393700898393656</v>
+        <v>0.1617638347164718</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>29.27060746310064</v>
+        <v>19.00153496163835</v>
       </c>
       <c r="O2" t="n">
-        <v>6.646311143090911</v>
+        <v>7.573329263593783</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8087454302166679</v>
+        <v>1.147975498210015</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.665026490901018</v>
+        <v>1.52533660296037</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1362056173579906</v>
+        <v>0.0051421780729205</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1261817221222325</v>
+        <v>0.1187782292700242</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23.15384814660096</v>
+        <v>22.14562452588611</v>
       </c>
       <c r="O2" t="n">
-        <v>7.285821150244921</v>
+        <v>5.634705290485954</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.3789801825179429</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.01049427933917441</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>24.94925541219651</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.670845117402017</v>
       </c>
     </row>
   </sheetData>

--- a/results/[all]_#_inv_capacity.xlsx
+++ b/results/[all]_#_inv_capacity.xlsx
@@ -559,7 +559,7 @@
         <v>12.7225376573605</v>
       </c>
       <c r="O2" t="n">
-        <v>3.412726950301433</v>
+        <v>3.41272695030143</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06598974870958903</v>
+        <v>0.06592367743582367</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7285723112601229</v>
+        <v>0.7356952478631865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2273058887398774</v>
+        <v>0.2195099354701471</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08785800000000005</v>
+        <v>0.08791305939480454</v>
       </c>
       <c r="N2" t="n">
-        <v>8.998982253460911</v>
+        <v>8.998982253460907</v>
       </c>
       <c r="O2" t="n">
-        <v>6.734518884057666</v>
+        <v>6.747238139072843</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1231904873122577</v>
+        <v>0.1260055233262948</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03401982872623448</v>
+        <v>0.03282537593862538</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1592808142308435</v>
+        <v>0.1576050149385859</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4124207654190268</v>
+        <v>0.4124253487523346</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02832824999999994</v>
+        <v>0.02894162393852881</v>
       </c>
       <c r="N2" t="n">
-        <v>7.845576327967116</v>
+        <v>7.791100800027102</v>
       </c>
       <c r="O2" t="n">
-        <v>0.739739264829506</v>
+        <v>0.7270200098146926</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4591703578189765</v>
+        <v>0.4711113629604995</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1545504724036852</v>
+        <v>0.1538638740281748</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.491682046607792</v>
+        <v>2.534564915429591</v>
       </c>
       <c r="O2" t="n">
-        <v>5.52224645448535</v>
+        <v>5.522246454485551</v>
       </c>
     </row>
   </sheetData>
